--- a/INTLINE/data/136/BOI/Current Account Services_historical.xlsx
+++ b/INTLINE/data/136/BOI/Current Account Services_historical.xlsx
@@ -2027,16 +2027,16 @@
         <v>3668.774</v>
       </c>
       <c r="GX2" t="n">
-        <v>4344.503</v>
+        <v>4372.914</v>
       </c>
       <c r="GY2" t="n">
-        <v>4824.837</v>
+        <v>5031.693</v>
       </c>
       <c r="GZ2" t="n">
-        <v>5134.174</v>
+        <v>6249.232</v>
       </c>
       <c r="HA2" t="n">
-        <v>5633.814</v>
+        <v>6498.151</v>
       </c>
     </row>
     <row r="3">
@@ -2658,16 +2658,16 @@
         <v>1213.284</v>
       </c>
       <c r="GX3" t="n">
-        <v>1417.696</v>
+        <v>1468.392</v>
       </c>
       <c r="GY3" t="n">
-        <v>2451.115</v>
+        <v>2268.148</v>
       </c>
       <c r="GZ3" t="n">
-        <v>5277.14</v>
+        <v>5331.936</v>
       </c>
       <c r="HA3" t="n">
-        <v>3567.551</v>
+        <v>3576.762</v>
       </c>
     </row>
     <row r="4">
@@ -8137,16 +8137,16 @@
         <v>21843.536</v>
       </c>
       <c r="GX12" t="n">
-        <v>19946.256</v>
+        <v>20025.363</v>
       </c>
       <c r="GY12" t="n">
-        <v>22446.292</v>
+        <v>22470.181</v>
       </c>
       <c r="GZ12" t="n">
-        <v>25564.024</v>
+        <v>26733.879</v>
       </c>
       <c r="HA12" t="n">
-        <v>28005.454</v>
+        <v>28879.002</v>
       </c>
     </row>
     <row r="13">
@@ -8768,16 +8768,16 @@
         <v>2043.871</v>
       </c>
       <c r="GX13" t="n">
-        <v>2102.231</v>
+        <v>2234.094</v>
       </c>
       <c r="GY13" t="n">
-        <v>2419.045</v>
+        <v>2565.073</v>
       </c>
       <c r="GZ13" t="n">
-        <v>2577.235</v>
+        <v>2744.89</v>
       </c>
       <c r="HA13" t="n">
-        <v>2561.454</v>
+        <v>2725.398</v>
       </c>
     </row>
     <row r="14">
@@ -9399,16 +9399,16 @@
         <v>2104.374</v>
       </c>
       <c r="GX14" t="n">
-        <v>1181.836</v>
+        <v>1207.049</v>
       </c>
       <c r="GY14" t="n">
-        <v>2827.316</v>
+        <v>2688.156</v>
       </c>
       <c r="GZ14" t="n">
-        <v>11695.683</v>
+        <v>11584.145</v>
       </c>
       <c r="HA14" t="n">
-        <v>6042.952</v>
+        <v>5786.716</v>
       </c>
     </row>
     <row r="15">
@@ -14878,16 +14878,16 @@
         <v>19468.287</v>
       </c>
       <c r="GX23" t="n">
-        <v>15330.893</v>
+        <v>15487.97</v>
       </c>
       <c r="GY23" t="n">
-        <v>18575.239</v>
+        <v>18582.107</v>
       </c>
       <c r="GZ23" t="n">
-        <v>27568.432</v>
+        <v>27624.55</v>
       </c>
       <c r="HA23" t="n">
-        <v>25122.127</v>
+        <v>25029.835</v>
       </c>
     </row>
     <row r="24">
@@ -15509,16 +15509,16 @@
         <v>-1624.903</v>
       </c>
       <c r="GX24" t="n">
-        <v>-2242.272</v>
+        <v>-2138.819</v>
       </c>
       <c r="GY24" t="n">
-        <v>-2405.792</v>
+        <v>-2466.62</v>
       </c>
       <c r="GZ24" t="n">
-        <v>-2556.94</v>
+        <v>-3504.342</v>
       </c>
       <c r="HA24" t="n">
-        <v>-3072.36</v>
+        <v>-3772.753</v>
       </c>
     </row>
     <row r="25">
@@ -16140,16 +16140,16 @@
         <v>891.091</v>
       </c>
       <c r="GX25" t="n">
-        <v>-235.859</v>
+        <v>-261.343</v>
       </c>
       <c r="GY25" t="n">
-        <v>376.2</v>
+        <v>420.007</v>
       </c>
       <c r="GZ25" t="n">
-        <v>6418.543</v>
+        <v>6252.209</v>
       </c>
       <c r="HA25" t="n">
-        <v>2475.401</v>
+        <v>2209.955</v>
       </c>
     </row>
     <row r="26">
@@ -21619,16 +21619,16 @@
         <v>-2375.249</v>
       </c>
       <c r="GX34" t="n">
-        <v>-4615.363</v>
+        <v>-4537.393</v>
       </c>
       <c r="GY34" t="n">
-        <v>-3871.053</v>
+        <v>-3888.074</v>
       </c>
       <c r="GZ34" t="n">
-        <v>2004.408</v>
+        <v>890.671</v>
       </c>
       <c r="HA34" t="n">
-        <v>-2883.327</v>
+        <v>-3849.167</v>
       </c>
     </row>
   </sheetData>
